--- a/三泰/三泰体系文件/君立式自评报告/得分汇总表 .xlsx
+++ b/三泰/三泰体系文件/君立式自评报告/得分汇总表 .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\君立式体系文件\君立式自评报告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\茶亭\三泰\三泰体系文件\君立式自评报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -581,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -769,23 +769,23 @@
         <v>260</v>
       </c>
       <c r="C9" s="12">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D9" s="12">
         <f>B9-C9</f>
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E9" s="12">
         <v>132</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>0.65671641791044777</v>
+        <v>0.69473684210526321</v>
       </c>
       <c r="G9" s="12"/>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -796,23 +796,23 @@
         <v>230</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="12">
         <f>B10-C10</f>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E10" s="7">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>0.65740740740740744</v>
+        <v>0.67289719626168221</v>
       </c>
       <c r="G10" s="7"/>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -979,30 +979,30 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" ref="C17:E17" si="3">SUM(C4:C16)</f>
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="2"/>
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>0.66079295154185025</v>
+        <v>0.6726256983240223</v>
       </c>
       <c r="G17" s="7"/>
       <c r="J17">
         <f>D17-E17</f>
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="D18" s="18">
-        <v>44311</v>
+        <v>44327</v>
       </c>
       <c r="E18" s="18"/>
     </row>
